--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_7_14.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_7_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-580987.3135770517</v>
+        <v>-561238.8643591256</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17410625.23004074</v>
+        <v>16765245.1615573</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484447</v>
+        <v>492028.9342484443</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9371235.944995182</v>
+        <v>9414899.778872382</v>
       </c>
     </row>
     <row r="11">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>320.0331481255877</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
         <v>23.58875529488432</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,19 +707,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>122.5499617210164</v>
       </c>
       <c r="X2" t="n">
         <v>414.9510387864824</v>
@@ -817,7 +817,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>11.08306577637281</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>50.0440197007616</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>320.0331481255878</v>
+        <v>237.8218888408356</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1063,7 +1063,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
@@ -1072,7 +1072,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>71.95361350212706</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>93.41827306551629</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>261.12606697245</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1187,19 +1187,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>188.0660876281241</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>84.38392429672842</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
@@ -1309,7 +1309,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>131.996999652747</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1354,10 +1354,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1370,10 +1370,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>128.4533183072734</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
@@ -1382,10 +1382,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>250.7378040969459</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1424,16 +1424,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -1543,10 +1543,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>18.0567773522574</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>131.9969996527468</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1625,7 +1625,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791304664</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800248</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>50.30825486907117</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
@@ -1777,7 +1777,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>24.34318456170516</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="18">
@@ -2002,7 +2002,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
@@ -2017,7 +2017,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>31.24391673888152</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225706</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2090,7 +2090,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948852</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
         <v>397.3838530629687</v>
@@ -2248,16 +2248,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>14.14416275345768</v>
+        <v>73.01514676193449</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2491,7 +2491,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>18.05677735225763</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225796</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2725,13 +2725,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,13 +2761,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>94.21878984361686</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>136.0564930767006</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
@@ -2953,7 +2953,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>43.77283765622091</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
@@ -2965,7 +2965,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225694</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3047,7 +3047,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I32" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3199,13 +3199,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>160.7884964950064</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>22.28534392847732</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225751</v>
+        <v>18.05677735225723</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.57964473925401</v>
+        <v>66.57964473925399</v>
       </c>
       <c r="T38" t="n">
         <v>201.6308445169444</v>
@@ -3679,7 +3679,7 @@
         <v>122.2674422277819</v>
       </c>
       <c r="I40" t="n">
-        <v>71.53763939432406</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.967932742934476</v>
+        <v>4.967932742934465</v>
       </c>
       <c r="S40" t="n">
         <v>141.4132446762359</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.57964473925401</v>
+        <v>66.57964473925398</v>
       </c>
       <c r="T41" t="n">
-        <v>201.6308445169444</v>
+        <v>201.6308445169449</v>
       </c>
       <c r="U41" t="n">
         <v>240.3943693174059</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>173.6647221930499</v>
+        <v>173.6647221930498</v>
       </c>
       <c r="C43" t="n">
         <v>154.6003840628599</v>
@@ -3907,16 +3907,16 @@
         <v>151.8247133730227</v>
       </c>
       <c r="F43" t="n">
-        <v>158.704273159114</v>
+        <v>158.7042731591139</v>
       </c>
       <c r="G43" t="n">
         <v>147.6996518856832</v>
       </c>
       <c r="H43" t="n">
-        <v>122.2674422277819</v>
+        <v>122.2674422277818</v>
       </c>
       <c r="I43" t="n">
-        <v>71.53763939432406</v>
+        <v>71.53763939432403</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4.967932742934476</v>
+        <v>4.967932742934551</v>
       </c>
       <c r="S43" t="n">
         <v>141.4132446762359</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.57964473925399</v>
+        <v>66.57964473925398</v>
       </c>
       <c r="T44" t="n">
         <v>201.6308445169444</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>173.6647221930499</v>
+        <v>173.6647221930498</v>
       </c>
       <c r="C46" t="n">
         <v>154.6003840628599</v>
       </c>
       <c r="D46" t="n">
-        <v>147.9835025317452</v>
+        <v>147.9835025317451</v>
       </c>
       <c r="E46" t="n">
         <v>151.8247133730227</v>
       </c>
       <c r="F46" t="n">
-        <v>158.704273159114</v>
+        <v>158.7042731591139</v>
       </c>
       <c r="G46" t="n">
         <v>147.6996518856832</v>
       </c>
       <c r="H46" t="n">
-        <v>122.2674422277819</v>
+        <v>122.2674422277818</v>
       </c>
       <c r="I46" t="n">
-        <v>71.53763939432405</v>
+        <v>71.53763939432403</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.967932742934465</v>
+        <v>4.967932742934451</v>
       </c>
       <c r="S46" t="n">
         <v>141.4132446762359</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>442.640221925911</v>
+        <v>576.3949492867619</v>
       </c>
       <c r="C2" t="n">
-        <v>119.3744157384487</v>
+        <v>542.2928805105893</v>
       </c>
       <c r="D2" t="n">
-        <v>87.50503495329731</v>
+        <v>510.4234997254379</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>76.64875488373305</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>52.82172933334484</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>52.82172933334484</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>52.82172933334484</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>52.40493996048485</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>487.6596274134027</v>
       </c>
       <c r="K2" t="n">
-        <v>453.9965675465116</v>
+        <v>487.6596274134027</v>
       </c>
       <c r="L2" t="n">
-        <v>453.9965675465116</v>
+        <v>487.6596274134027</v>
       </c>
       <c r="M2" t="n">
-        <v>453.9965675465116</v>
+        <v>487.6596274134027</v>
       </c>
       <c r="N2" t="n">
-        <v>453.9965675465116</v>
+        <v>607.571883290591</v>
       </c>
       <c r="O2" t="n">
-        <v>874.0494664914149</v>
+        <v>1256.083015301591</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1904.594147312591</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2451.092933271185</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2620.246998024242</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2536.595124208079</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2316.527897081118</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>2316.527897081118</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>1953.910947014944</v>
       </c>
       <c r="W2" t="n">
-        <v>1292.327975491451</v>
+        <v>1830.123106892705</v>
       </c>
       <c r="X2" t="n">
-        <v>873.1855120707613</v>
+        <v>1410.980643472016</v>
       </c>
       <c r="Y2" t="n">
-        <v>464.8993883704147</v>
+        <v>1002.69451977167</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>558.5766849517777</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>452.1202237884199</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>357.0299349349732</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030505</v>
+        <v>262.9095202619269</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>179.5256818780885</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>94.14059214427238</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>52.40493996048485</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>78.46861312094245</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>403.0269380871547</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>1051.538070098155</v>
       </c>
       <c r="L3" t="n">
-        <v>804.6185656731816</v>
+        <v>1057.732984712879</v>
       </c>
       <c r="M3" t="n">
-        <v>804.6185656731816</v>
+        <v>1057.732984712879</v>
       </c>
       <c r="N3" t="n">
-        <v>804.6185656731816</v>
+        <v>1057.732984712879</v>
       </c>
       <c r="O3" t="n">
-        <v>804.6185656731816</v>
+        <v>1057.732984712879</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1057.732984712879</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1598.471923344954</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1715.644701439294</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1652.189263887677</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1522.010620218279</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1345.674073218247</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1146.556555280246</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>961.2338010134401</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>806.3663652523201</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>679.8805860315408</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>940.4401176967148</v>
+        <v>970.0964049913214</v>
       </c>
       <c r="C4" t="n">
-        <v>940.4401176967148</v>
+        <v>958.9013890555913</v>
       </c>
       <c r="D4" t="n">
-        <v>774.5621248982375</v>
+        <v>793.023396257114</v>
       </c>
       <c r="E4" t="n">
-        <v>604.8041211489747</v>
+        <v>623.2653925078512</v>
       </c>
       <c r="F4" t="n">
-        <v>428.0970671107308</v>
+        <v>446.5583384696073</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>280.967063495435</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>141.0648891858095</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>52.40493996048485</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>138.9846251251747</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>364.9255278572683</v>
       </c>
       <c r="L4" t="n">
-        <v>452.1535503695694</v>
+        <v>783.1354096252293</v>
       </c>
       <c r="M4" t="n">
-        <v>872.2064493144727</v>
+        <v>1242.619276806142</v>
       </c>
       <c r="N4" t="n">
-        <v>1277.514180854636</v>
+        <v>1684.878079963787</v>
       </c>
       <c r="O4" t="n">
-        <v>1697.183430080417</v>
+        <v>2104.547329189568</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>2452.05422315991</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2620.246998024242</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>2598.829176729614</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>2439.587808027611</v>
       </c>
       <c r="T4" t="n">
-        <v>1697.183430080417</v>
+        <v>2193.708361606066</v>
       </c>
       <c r="U4" t="n">
-        <v>1697.183430080417</v>
+        <v>2193.708361606066</v>
       </c>
       <c r="V4" t="n">
-        <v>1410.227921950848</v>
+        <v>1906.752853476496</v>
       </c>
       <c r="W4" t="n">
-        <v>1359.678407101594</v>
+        <v>1634.726449062788</v>
       </c>
       <c r="X4" t="n">
-        <v>1359.678407101594</v>
+        <v>1389.3346943962</v>
       </c>
       <c r="Y4" t="n">
-        <v>1132.258736415702</v>
+        <v>1161.915023710309</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>442.6402219259112</v>
+        <v>1880.724249858583</v>
       </c>
       <c r="C5" t="n">
-        <v>119.3744157384487</v>
+        <v>1640.500119716325</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>1204.590334890769</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>770.8155900490646</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>874.0494664914149</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L5" t="n">
-        <v>874.0494664914149</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M5" t="n">
-        <v>874.0494664914149</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N5" t="n">
-        <v>874.0494664914149</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O5" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>1922.331195343315</v>
       </c>
       <c r="X5" t="n">
-        <v>1277.225916111166</v>
+        <v>1907.229135963029</v>
       </c>
       <c r="Y5" t="n">
-        <v>868.939792410819</v>
+        <v>1902.983416303087</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1024.341879988165</v>
+        <v>955.7523231022661</v>
       </c>
       <c r="C7" t="n">
-        <v>851.7801684713901</v>
+        <v>783.1906115854911</v>
       </c>
       <c r="D7" t="n">
-        <v>685.9021756729128</v>
+        <v>617.3126187870138</v>
       </c>
       <c r="E7" t="n">
-        <v>516.14417192365</v>
+        <v>447.554615037751</v>
       </c>
       <c r="F7" t="n">
-        <v>339.4371178854062</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>173.8458429112338</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>813.4916901053949</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>1233.544589050298</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1653.597487995201</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1653.597487995201</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1653.597487995201</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1537.942061378414</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>1537.942061378414</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U7" t="n">
-        <v>1537.942061378414</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>1537.942061378414</v>
+        <v>1892.408771587441</v>
       </c>
       <c r="W7" t="n">
-        <v>1537.942061378414</v>
+        <v>1620.382367173733</v>
       </c>
       <c r="X7" t="n">
-        <v>1443.580169393044</v>
+        <v>1374.990612507145</v>
       </c>
       <c r="Y7" t="n">
-        <v>1216.160498707152</v>
+        <v>1147.570941821253</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1602.297771400322</v>
+        <v>1385.472033935714</v>
       </c>
       <c r="C8" t="n">
-        <v>1568.195702624149</v>
+        <v>947.3295611191371</v>
       </c>
       <c r="D8" t="n">
-        <v>1304.431998611574</v>
+        <v>511.4197762935816</v>
       </c>
       <c r="E8" t="n">
-        <v>870.6572537698687</v>
+        <v>77.64503145187676</v>
       </c>
       <c r="F8" t="n">
-        <v>442.7898241790765</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G8" t="n">
-        <v>41.3919928023404</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>41.3919928023404</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>40.97520342948041</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>476.2298908823983</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>865.4698218413236</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>865.4698218413236</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>865.4698218413236</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>865.4698218413236</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>865.4698218413236</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1372.537964281144</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1879.606106720964</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>2048.76017147402</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2048.76017147402</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2048.76017147402</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>2048.76017147402</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V8" t="n">
-        <v>2048.76017147402</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="W8" t="n">
-        <v>1643.904716885054</v>
+        <v>2410.023473199882</v>
       </c>
       <c r="X8" t="n">
-        <v>1628.802657504768</v>
+        <v>2220.057728120968</v>
       </c>
       <c r="Y8" t="n">
-        <v>1624.556937844826</v>
+        <v>1811.771604420622</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>547.1469484207732</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>440.6904872574155</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>345.6001984039688</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>251.4797837309225</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>168.0959453470841</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>82.71085561326794</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>40.97520342948041</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>67.038876589938</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>391.5972015561504</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>898.6653439959704</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1079.97404437413</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1079.97404437413</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1079.97404437413</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1079.97404437413</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1079.97404437413</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1587.04218681395</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1704.214964908289</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1640.759527356672</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1510.580883687274</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1334.244336687242</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1135.126818749242</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>949.8040644824357</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>794.9366287213156</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>668.4508495005364</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>944.0479904676747</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>858.8117032992621</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>692.9337105007849</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>523.1757067515221</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>346.4686527132782</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>180.8773777391059</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>40.97520342948041</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>40.97520342948041</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>40.97520342948041</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>40.97520342948041</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>379.8413579393397</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>839.3252251202528</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1281.584028277897</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1701.253277503679</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>2048.76017147402</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>2048.76017147402</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2027.342350179392</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2027.342350179392</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1781.462903757847</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="U10" t="n">
-        <v>1503.029903010953</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1216.074394881383</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>944.0479904676747</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>944.0479904676747</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>944.0479904676747</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2190.774766023739</v>
+        <v>1625.999150697071</v>
       </c>
       <c r="C11" t="n">
-        <v>2061.023939450735</v>
+        <v>1187.856677880494</v>
       </c>
       <c r="D11" t="n">
-        <v>1625.11415462518</v>
+        <v>1187.856677880494</v>
       </c>
       <c r="E11" t="n">
-        <v>1191.339409783475</v>
+        <v>754.0819330387894</v>
       </c>
       <c r="F11" t="n">
-        <v>763.4719801926828</v>
+        <v>326.2145034479972</v>
       </c>
       <c r="G11" t="n">
-        <v>362.0741488159467</v>
+        <v>72.94399425916311</v>
       </c>
       <c r="H11" t="n">
-        <v>72.94399425916299</v>
+        <v>72.94399425916311</v>
       </c>
       <c r="I11" t="n">
-        <v>72.94399425916299</v>
+        <v>72.94399425916311</v>
       </c>
       <c r="J11" t="n">
-        <v>508.1986817120808</v>
+        <v>72.94399425916311</v>
       </c>
       <c r="K11" t="n">
-        <v>1342.548973670259</v>
+        <v>72.94399425916311</v>
       </c>
       <c r="L11" t="n">
-        <v>2103.236987413102</v>
+        <v>975.6259232163063</v>
       </c>
       <c r="M11" t="n">
-        <v>2103.236987413102</v>
+        <v>1841.835855043868</v>
       </c>
       <c r="N11" t="n">
-        <v>2103.236987413102</v>
+        <v>2744.517784001011</v>
       </c>
       <c r="O11" t="n">
-        <v>2103.236987413102</v>
+        <v>3647.199712958155</v>
       </c>
       <c r="P11" t="n">
-        <v>2931.546862246498</v>
+        <v>3647.199712958155</v>
       </c>
       <c r="Q11" t="n">
-        <v>3478.045648205093</v>
+        <v>3647.199712958155</v>
       </c>
       <c r="R11" t="n">
-        <v>3647.19971295815</v>
+        <v>3647.199712958155</v>
       </c>
       <c r="S11" t="n">
-        <v>3647.19971295815</v>
+        <v>3647.199712958155</v>
       </c>
       <c r="T11" t="n">
-        <v>3647.19971295815</v>
+        <v>3647.199712958155</v>
       </c>
       <c r="U11" t="n">
-        <v>3387.977410275167</v>
+        <v>3647.199712958155</v>
       </c>
       <c r="V11" t="n">
-        <v>3025.360460208993</v>
+        <v>3284.582762891981</v>
       </c>
       <c r="W11" t="n">
-        <v>3025.360460208993</v>
+        <v>2879.727308303015</v>
       </c>
       <c r="X11" t="n">
-        <v>3025.360460208993</v>
+        <v>2460.584844882325</v>
       </c>
       <c r="Y11" t="n">
-        <v>2617.074336508646</v>
+        <v>2052.298721181979</v>
       </c>
     </row>
     <row r="12">
@@ -5094,31 +5094,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>579.1157392504558</v>
+        <v>579.1157392504559</v>
       </c>
       <c r="C12" t="n">
-        <v>472.6592780870981</v>
+        <v>472.6592780870982</v>
       </c>
       <c r="D12" t="n">
-        <v>377.5689892336513</v>
+        <v>377.5689892336515</v>
       </c>
       <c r="E12" t="n">
-        <v>283.448574560605</v>
+        <v>283.4485745606052</v>
       </c>
       <c r="F12" t="n">
-        <v>200.0647361767666</v>
+        <v>200.0647361767668</v>
       </c>
       <c r="G12" t="n">
-        <v>114.6796464429505</v>
+        <v>114.6796464429506</v>
       </c>
       <c r="H12" t="n">
-        <v>72.94399425916299</v>
+        <v>72.94399425916311</v>
       </c>
       <c r="I12" t="n">
-        <v>99.00766741962059</v>
+        <v>99.0076674196207</v>
       </c>
       <c r="J12" t="n">
-        <v>423.5659923858329</v>
+        <v>423.5659923858331</v>
       </c>
       <c r="K12" t="n">
         <v>1078.272039011557</v>
@@ -5160,10 +5160,10 @@
         <v>981.7728553121183</v>
       </c>
       <c r="X12" t="n">
-        <v>826.9054195509982</v>
+        <v>826.9054195509983</v>
       </c>
       <c r="Y12" t="n">
-        <v>700.419640330219</v>
+        <v>700.4196403302191</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>923.4400313360943</v>
+        <v>1152.002154871045</v>
       </c>
       <c r="C13" t="n">
-        <v>750.8783198193192</v>
+        <v>979.44044335427</v>
       </c>
       <c r="D13" t="n">
-        <v>585.000327020842</v>
+        <v>813.5624505557926</v>
       </c>
       <c r="E13" t="n">
-        <v>415.2423232715792</v>
+        <v>643.8044468065295</v>
       </c>
       <c r="F13" t="n">
-        <v>238.5352692333353</v>
+        <v>467.0973927682856</v>
       </c>
       <c r="G13" t="n">
-        <v>72.94399425916299</v>
+        <v>301.5061177941133</v>
       </c>
       <c r="H13" t="n">
-        <v>72.94399425916299</v>
+        <v>161.6039434844878</v>
       </c>
       <c r="I13" t="n">
-        <v>72.94399425916299</v>
+        <v>72.94399425916311</v>
       </c>
       <c r="J13" t="n">
-        <v>159.5236794238529</v>
+        <v>159.523679423853</v>
       </c>
       <c r="K13" t="n">
-        <v>434.2821339949884</v>
+        <v>434.2821339949885</v>
       </c>
       <c r="L13" t="n">
-        <v>852.4920157629494</v>
+        <v>852.4920157629496</v>
       </c>
       <c r="M13" t="n">
-        <v>1311.975882943862</v>
+        <v>1311.975882943863</v>
       </c>
       <c r="N13" t="n">
         <v>1754.234686101507</v>
       </c>
       <c r="O13" t="n">
-        <v>2173.903935327288</v>
+        <v>2173.903935327289</v>
       </c>
       <c r="P13" t="n">
-        <v>2521.41082929763</v>
+        <v>2521.410829297631</v>
       </c>
       <c r="Q13" t="n">
         <v>2689.603604161963</v>
       </c>
       <c r="R13" t="n">
-        <v>2689.603604161963</v>
+        <v>2668.185782867335</v>
       </c>
       <c r="S13" t="n">
-        <v>2671.364435119278</v>
+        <v>2508.944414165332</v>
       </c>
       <c r="T13" t="n">
-        <v>2425.484988697734</v>
+        <v>2508.944414165332</v>
       </c>
       <c r="U13" t="n">
-        <v>2147.051987950839</v>
+        <v>2375.614111485789</v>
       </c>
       <c r="V13" t="n">
-        <v>1860.096479821269</v>
+        <v>2088.65860335622</v>
       </c>
       <c r="W13" t="n">
-        <v>1588.070075407561</v>
+        <v>1816.632198942511</v>
       </c>
       <c r="X13" t="n">
-        <v>1342.678320740973</v>
+        <v>1571.240444275924</v>
       </c>
       <c r="Y13" t="n">
-        <v>1115.258650055081</v>
+        <v>1343.820773590032</v>
       </c>
     </row>
     <row r="14">
@@ -5264,43 +5264,43 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H14" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I14" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K14" t="n">
-        <v>605.8694973157614</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L14" t="n">
-        <v>1680.929463568621</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M14" t="n">
-        <v>2837.977298779172</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N14" t="n">
-        <v>3963.708282215619</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O14" t="n">
-        <v>4943.887948785925</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P14" t="n">
-        <v>4943.887948785925</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R14" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S14" t="n">
         <v>5029.390139722817</v>
@@ -5358,22 +5358,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L15" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M15" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N15" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O15" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P15" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q15" t="n">
         <v>1648.327823655249</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>811.7546776883919</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C16" t="n">
-        <v>639.1929661716172</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D16" t="n">
-        <v>473.3149733731399</v>
+        <v>614.3171730324585</v>
       </c>
       <c r="E16" t="n">
-        <v>303.5569696238771</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F16" t="n">
-        <v>126.8499155856333</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G16" t="n">
         <v>102.2608402707796</v>
@@ -5437,7 +5437,7 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
         <v>881.8088617745661</v>
@@ -5470,13 +5470,13 @@
         <v>2035.366634303136</v>
       </c>
       <c r="V16" t="n">
-        <v>1748.411126173567</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W16" t="n">
         <v>1476.384721759858</v>
       </c>
       <c r="X16" t="n">
-        <v>1230.992967093271</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y16" t="n">
         <v>1003.573296407379</v>
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
         <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G17" t="n">
         <v>391.8077842004234</v>
@@ -5525,40 +5525,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5589,10 +5589,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2970399865835</v>
       </c>
       <c r="J18" t="n">
-        <v>452.8828383974496</v>
+        <v>426.8553649527958</v>
       </c>
       <c r="K18" t="n">
         <v>1107.588885023173</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>811.7546776883914</v>
+        <v>952.756877347711</v>
       </c>
       <c r="C19" t="n">
-        <v>811.7546776883914</v>
+        <v>780.1951658309359</v>
       </c>
       <c r="D19" t="n">
-        <v>645.8766848899147</v>
+        <v>614.3171730324585</v>
       </c>
       <c r="E19" t="n">
-        <v>476.118681140652</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F19" t="n">
-        <v>299.411627102408</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>133.8203521282357</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
         <v>102.2608402707796</v>
@@ -5698,25 +5698,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H20" t="n">
         <v>102.6776296436396</v>
@@ -5756,46 +5756,46 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>2446.925785934734</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423628</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5832,22 +5832,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>452.8828383974496</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L21" t="n">
-        <v>452.8828383974496</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M21" t="n">
-        <v>452.8828383974496</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N21" t="n">
-        <v>452.8828383974496</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O21" t="n">
-        <v>452.8828383974496</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P21" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q21" t="n">
         <v>1648.327823655249</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>790.3368563937677</v>
+        <v>949.5782250957666</v>
       </c>
       <c r="C22" t="n">
-        <v>617.7751448769927</v>
+        <v>777.0165135789915</v>
       </c>
       <c r="D22" t="n">
-        <v>451.8971520785154</v>
+        <v>611.1385207805142</v>
       </c>
       <c r="E22" t="n">
-        <v>282.1391483292526</v>
+        <v>441.3805170312515</v>
       </c>
       <c r="F22" t="n">
-        <v>282.1391483292526</v>
+        <v>264.6734629930078</v>
       </c>
       <c r="G22" t="n">
-        <v>116.5478733550803</v>
+        <v>264.6734629930078</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5923,37 +5923,37 @@
         <v>1783.551532113124</v>
       </c>
       <c r="O22" t="n">
-        <v>2203.220781338909</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P22" t="n">
-        <v>2550.727675309251</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q22" t="n">
-        <v>2718.920450173583</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878955</v>
+        <v>2697.50262887895</v>
       </c>
       <c r="S22" t="n">
-        <v>2538.261260176952</v>
+        <v>2697.50262887895</v>
       </c>
       <c r="T22" t="n">
-        <v>2292.381813755407</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U22" t="n">
-        <v>2013.948813008512</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V22" t="n">
-        <v>1726.993304878943</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W22" t="n">
-        <v>1454.966900465234</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X22" t="n">
-        <v>1209.575145798647</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y22" t="n">
-        <v>982.1554751127549</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5975,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5996,7 +5996,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6026,13 +6026,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6069,22 +6069,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L24" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M24" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N24" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O24" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P24" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q24" t="n">
         <v>1648.327823655249</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.756877347711</v>
+        <v>970.9960463903953</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309359</v>
+        <v>798.4343348736203</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324586</v>
+        <v>632.556342075143</v>
       </c>
       <c r="E25" t="n">
-        <v>444.559169283196</v>
+        <v>462.7983383258802</v>
       </c>
       <c r="F25" t="n">
-        <v>267.8521152449521</v>
+        <v>286.0912842876364</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707797</v>
+        <v>120.5000093134641</v>
       </c>
       <c r="H25" t="n">
         <v>102.2608402707796</v>
@@ -6172,25 +6172,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752035</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.60800300514</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461862</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109383</v>
       </c>
     </row>
     <row r="26">
@@ -6212,10 +6212,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
         <v>102.6776296436396</v>
@@ -6227,22 +6227,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>936.6111322289576</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L26" t="n">
-        <v>1463.16863798718</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M26" t="n">
-        <v>1463.16863798718</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="Q26" t="n">
         <v>4943.887948785924</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477109</v>
+        <v>875.8255515988632</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309358</v>
+        <v>703.2638400820881</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>537.3858472836108</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>367.6278435343481</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="G28" t="n">
+        <v>190.9207894961043</v>
+      </c>
+      <c r="H28" t="n">
+        <v>190.9207894961043</v>
+      </c>
+      <c r="I28" t="n">
         <v>102.2608402707796</v>
       </c>
-      <c r="H28" t="n">
-        <v>102.2608402707805</v>
-      </c>
-      <c r="I28" t="n">
-        <v>102.2608402707805</v>
-      </c>
       <c r="J28" t="n">
-        <v>188.8405254354704</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K28" t="n">
-        <v>463.5989800066059</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L28" t="n">
-        <v>881.808861774567</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M28" t="n">
-        <v>1341.29272895548</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N28" t="n">
         <v>1783.551532113124</v>
       </c>
       <c r="O28" t="n">
-        <v>2203.220781338906</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P28" t="n">
-        <v>2550.727675309248</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q28" t="n">
-        <v>2718.92045017358</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.92045017358</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2559.679081471576</v>
+        <v>2623.749955382047</v>
       </c>
       <c r="T28" t="n">
-        <v>2313.799635050032</v>
+        <v>2377.870508960502</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2099.437508213608</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>1812.482000084038</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1540.45559567033</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1295.063841003742</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1067.64417031785</v>
       </c>
     </row>
     <row r="29">
@@ -6449,13 +6449,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6464,22 +6464,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>388.1086717343205</v>
+        <v>605.8694973157604</v>
       </c>
       <c r="L29" t="n">
-        <v>1463.16863798718</v>
+        <v>1680.92946356862</v>
       </c>
       <c r="M29" t="n">
-        <v>1463.16863798718</v>
+        <v>2837.977298779171</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>3963.708282215618</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="Q29" t="n">
         <v>4943.887948785924</v>
@@ -6500,13 +6500,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6543,22 +6543,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L30" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="M30" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="N30" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="O30" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="P30" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q30" t="n">
         <v>1648.327823655249</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.756877347711</v>
+        <v>970.9960463903952</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309357</v>
+        <v>798.4343348736202</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324584</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6646,25 +6646,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461862</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C32" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D32" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E32" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6701,49 +6701,49 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>1612.575493976557</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>2769.623329187108</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>3895.354312623555</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>3895.354312623555</v>
       </c>
       <c r="P32" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R32" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S32" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T32" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U32" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V32" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="33">
@@ -6780,22 +6780,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L33" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M33" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N33" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O33" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P33" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q33" t="n">
         <v>1648.327823655249</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>949.5782250957673</v>
+        <v>949.5782250957667</v>
       </c>
       <c r="C34" t="n">
-        <v>777.0165135789922</v>
+        <v>777.0165135789916</v>
       </c>
       <c r="D34" t="n">
-        <v>611.1385207805149</v>
+        <v>611.1385207805145</v>
       </c>
       <c r="E34" t="n">
-        <v>441.3805170312522</v>
+        <v>441.3805170312517</v>
       </c>
       <c r="F34" t="n">
-        <v>264.6734629930083</v>
+        <v>264.6734629930079</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>264.6734629930079</v>
       </c>
       <c r="H34" t="n">
-        <v>102.2608402707796</v>
+        <v>124.7712886833824</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6886,16 +6886,16 @@
         <v>2697.502628878951</v>
       </c>
       <c r="T34" t="n">
-        <v>2451.623182457407</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U34" t="n">
-        <v>2173.190181710512</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V34" t="n">
         <v>1886.234673580942</v>
       </c>
       <c r="W34" t="n">
-        <v>1614.208269167234</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X34" t="n">
         <v>1368.816514500646</v>
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.900047651788</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C35" t="n">
         <v>2090.757574835212</v>
@@ -6923,64 +6923,64 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M35" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423626</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993932</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.389162827329</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785923</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837042</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -6993,16 +6993,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C36" t="n">
-        <v>501.9761240987146</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D36" t="n">
-        <v>406.8858352452679</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E36" t="n">
-        <v>312.7654205722216</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F36" t="n">
-        <v>229.3815821883832</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G36" t="n">
         <v>143.9964924545671</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477108</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309357</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324584</v>
+        <v>614.3171730324586</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831957</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F37" t="n">
-        <v>267.852115244952</v>
+        <v>267.8521152449521</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H37" t="n">
         <v>102.2608402707796</v>
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2425.390877206711</v>
+        <v>2425.39087720671</v>
       </c>
       <c r="C38" t="n">
         <v>2003.64811180301</v>
       </c>
       <c r="D38" t="n">
-        <v>1584.138034390331</v>
+        <v>1584.13803439033</v>
       </c>
       <c r="E38" t="n">
         <v>1166.762996961502</v>
       </c>
       <c r="F38" t="n">
-        <v>755.2952747835859</v>
+        <v>755.2952747835855</v>
       </c>
       <c r="G38" t="n">
         <v>370.2971508197255</v>
       </c>
       <c r="H38" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I38" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J38" t="n">
         <v>532.8213911287357</v>
@@ -7184,34 +7184,34 @@
         <v>2442.231649339773</v>
       </c>
       <c r="N38" t="n">
-        <v>2442.231649339773</v>
+        <v>2523.346856428595</v>
       </c>
       <c r="O38" t="n">
-        <v>3422.411315910079</v>
+        <v>3503.526522998902</v>
       </c>
       <c r="P38" t="n">
-        <v>4250.721190743476</v>
+        <v>4331.836397832298</v>
       </c>
       <c r="Q38" t="n">
-        <v>4797.21997670207</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="R38" t="n">
-        <v>4878.335183790893</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="S38" t="n">
         <v>4811.083017387606</v>
       </c>
       <c r="T38" t="n">
-        <v>4607.415497673521</v>
+        <v>4607.41549767352</v>
       </c>
       <c r="U38" t="n">
-        <v>4364.592902403414</v>
+        <v>4364.592902403413</v>
       </c>
       <c r="V38" t="n">
         <v>4018.375659750116</v>
       </c>
       <c r="W38" t="n">
-        <v>3629.919912574026</v>
+        <v>3629.919912574025</v>
       </c>
       <c r="X38" t="n">
         <v>3227.177156566212</v>
@@ -7245,28 +7245,28 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H39" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I39" t="n">
-        <v>123.6303768362755</v>
+        <v>97.60290339162182</v>
       </c>
       <c r="J39" t="n">
-        <v>448.1887018024878</v>
+        <v>422.1612283578341</v>
       </c>
       <c r="K39" t="n">
-        <v>448.1887018024878</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="L39" t="n">
-        <v>448.1887018024878</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="M39" t="n">
-        <v>448.1887018024878</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="N39" t="n">
-        <v>448.1887018024878</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="O39" t="n">
-        <v>448.1887018024878</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="P39" t="n">
         <v>1102.894748428211</v>
@@ -7309,25 +7309,25 @@
         <v>1061.826912397567</v>
       </c>
       <c r="C40" t="n">
-        <v>905.6649082936676</v>
+        <v>905.6649082936675</v>
       </c>
       <c r="D40" t="n">
-        <v>756.1866229080664</v>
+        <v>756.1866229080663</v>
       </c>
       <c r="E40" t="n">
-        <v>602.8283265716798</v>
+        <v>602.8283265716797</v>
       </c>
       <c r="F40" t="n">
-        <v>442.5209799463121</v>
+        <v>442.520979946312</v>
       </c>
       <c r="G40" t="n">
-        <v>293.3294123850159</v>
+        <v>293.3294123850158</v>
       </c>
       <c r="H40" t="n">
-        <v>169.8269454882666</v>
+        <v>169.8269454882664</v>
       </c>
       <c r="I40" t="n">
-        <v>97.56670367581788</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J40" t="n">
         <v>200.2197420758676</v>
@@ -7348,10 +7348,10 @@
         <v>2294.966764156103</v>
       </c>
       <c r="P40" t="n">
-        <v>2658.547011361804</v>
+        <v>2658.547011361805</v>
       </c>
       <c r="Q40" t="n">
-        <v>2842.813139461496</v>
+        <v>2842.813139461497</v>
       </c>
       <c r="R40" t="n">
         <v>2837.795025579745</v>
@@ -7360,10 +7360,10 @@
         <v>2694.953364290618</v>
       </c>
       <c r="T40" t="n">
-        <v>2465.473625281949</v>
+        <v>2465.47362528195</v>
       </c>
       <c r="U40" t="n">
-        <v>2203.44033194793</v>
+        <v>2203.440331947931</v>
       </c>
       <c r="V40" t="n">
         <v>1932.884531231237</v>
@@ -7375,7 +7375,7 @@
         <v>1448.265786976693</v>
       </c>
       <c r="Y40" t="n">
-        <v>1237.245823703677</v>
+        <v>1237.245823703678</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2425.390877206711</v>
+        <v>2425.39087720671</v>
       </c>
       <c r="C41" t="n">
         <v>2003.64811180301</v>
@@ -7403,46 +7403,46 @@
         <v>370.2971508197255</v>
       </c>
       <c r="H41" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I41" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J41" t="n">
-        <v>97.56670367581786</v>
+        <v>532.8213911287357</v>
       </c>
       <c r="K41" t="n">
-        <v>931.9169956339958</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="L41" t="n">
-        <v>2006.976961886855</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="M41" t="n">
-        <v>2006.976961886855</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="N41" t="n">
-        <v>2354.19279167554</v>
+        <v>2523.346856428595</v>
       </c>
       <c r="O41" t="n">
-        <v>3334.372458245846</v>
+        <v>3503.526522998902</v>
       </c>
       <c r="P41" t="n">
-        <v>4162.682333079242</v>
+        <v>4331.836397832298</v>
       </c>
       <c r="Q41" t="n">
-        <v>4709.181119037837</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="R41" t="n">
-        <v>4878.335183790893</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="S41" t="n">
-        <v>4811.083017387607</v>
+        <v>4811.083017387606</v>
       </c>
       <c r="T41" t="n">
-        <v>4607.415497673521</v>
+        <v>4607.41549767352</v>
       </c>
       <c r="U41" t="n">
-        <v>4364.592902403414</v>
+        <v>4364.592902403413</v>
       </c>
       <c r="V41" t="n">
         <v>4018.375659750116</v>
@@ -7482,28 +7482,28 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H42" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I42" t="n">
-        <v>123.6303768362755</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J42" t="n">
         <v>448.1887018024878</v>
       </c>
       <c r="K42" t="n">
-        <v>1102.894748428211</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="L42" t="n">
-        <v>1102.894748428211</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="M42" t="n">
-        <v>1102.894748428211</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="N42" t="n">
-        <v>1102.894748428211</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="O42" t="n">
-        <v>1102.894748428211</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="P42" t="n">
         <v>1102.894748428211</v>
@@ -7549,22 +7549,22 @@
         <v>905.6649082936674</v>
       </c>
       <c r="D43" t="n">
-        <v>756.1866229080663</v>
+        <v>756.1866229080662</v>
       </c>
       <c r="E43" t="n">
-        <v>602.8283265716797</v>
+        <v>602.8283265716796</v>
       </c>
       <c r="F43" t="n">
-        <v>442.520979946312</v>
+        <v>442.5209799463119</v>
       </c>
       <c r="G43" t="n">
-        <v>293.3294123850158</v>
+        <v>293.3294123850157</v>
       </c>
       <c r="H43" t="n">
         <v>169.8269454882664</v>
       </c>
       <c r="I43" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J43" t="n">
         <v>200.2197420758676</v>
@@ -7585,19 +7585,19 @@
         <v>2294.966764156103</v>
       </c>
       <c r="P43" t="n">
-        <v>2658.547011361804</v>
+        <v>2658.547011361805</v>
       </c>
       <c r="Q43" t="n">
         <v>2842.813139461497</v>
       </c>
       <c r="R43" t="n">
-        <v>2837.795025579745</v>
+        <v>2837.795025579744</v>
       </c>
       <c r="S43" t="n">
         <v>2694.953364290617</v>
       </c>
       <c r="T43" t="n">
-        <v>2465.473625281948</v>
+        <v>2465.473625281949</v>
       </c>
       <c r="U43" t="n">
         <v>2203.44033194793</v>
@@ -7625,25 +7625,25 @@
         <v>2425.39087720671</v>
       </c>
       <c r="C44" t="n">
-        <v>2003.648111803009</v>
+        <v>2003.64811180301</v>
       </c>
       <c r="D44" t="n">
-        <v>1584.13803439033</v>
+        <v>1584.138034390331</v>
       </c>
       <c r="E44" t="n">
-        <v>1166.762996961501</v>
+        <v>1166.762996961502</v>
       </c>
       <c r="F44" t="n">
-        <v>755.2952747835852</v>
+        <v>755.2952747835857</v>
       </c>
       <c r="G44" t="n">
         <v>370.2971508197255</v>
       </c>
       <c r="H44" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="I44" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="J44" t="n">
         <v>532.8213911287357</v>
@@ -7655,37 +7655,37 @@
         <v>2442.231649339773</v>
       </c>
       <c r="M44" t="n">
-        <v>2442.231649339773</v>
+        <v>2603.270469031084</v>
       </c>
       <c r="N44" t="n">
-        <v>2442.231649339773</v>
+        <v>3729.001452467531</v>
       </c>
       <c r="O44" t="n">
-        <v>3422.411315910079</v>
+        <v>4709.181119037837</v>
       </c>
       <c r="P44" t="n">
-        <v>4250.721190743476</v>
+        <v>4709.181119037837</v>
       </c>
       <c r="Q44" t="n">
-        <v>4797.21997670207</v>
+        <v>4709.181119037837</v>
       </c>
       <c r="R44" t="n">
-        <v>4878.335183790892</v>
+        <v>4878.335183790893</v>
       </c>
       <c r="S44" t="n">
-        <v>4811.083017387605</v>
+        <v>4811.083017387607</v>
       </c>
       <c r="T44" t="n">
-        <v>4607.41549767352</v>
+        <v>4607.415497673522</v>
       </c>
       <c r="U44" t="n">
-        <v>4364.592902403413</v>
+        <v>4364.592902403414</v>
       </c>
       <c r="V44" t="n">
         <v>4018.375659750116</v>
       </c>
       <c r="W44" t="n">
-        <v>3629.919912574025</v>
+        <v>3629.919912574026</v>
       </c>
       <c r="X44" t="n">
         <v>3227.177156566212</v>
@@ -7719,13 +7719,13 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H45" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="I45" t="n">
-        <v>123.6303768362754</v>
+        <v>97.60290339162182</v>
       </c>
       <c r="J45" t="n">
-        <v>448.1887018024878</v>
+        <v>422.1612283578341</v>
       </c>
       <c r="K45" t="n">
         <v>1102.894748428211</v>
@@ -7783,16 +7783,16 @@
         <v>1061.826912397566</v>
       </c>
       <c r="C46" t="n">
-        <v>905.6649082936672</v>
+        <v>905.6649082936673</v>
       </c>
       <c r="D46" t="n">
-        <v>756.1866229080656</v>
+        <v>756.1866229080662</v>
       </c>
       <c r="E46" t="n">
-        <v>602.8283265716791</v>
+        <v>602.8283265716796</v>
       </c>
       <c r="F46" t="n">
-        <v>442.5209799463119</v>
+        <v>442.520979946312</v>
       </c>
       <c r="G46" t="n">
         <v>293.3294123850158</v>
@@ -7801,7 +7801,7 @@
         <v>169.8269454882664</v>
       </c>
       <c r="I46" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="J46" t="n">
         <v>200.2197420758676</v>
@@ -7976,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -7988,16 +7988,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>121.1234907850387</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>655.0617495060606</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>655.0617495060606</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>655.0617495060604</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>6.257489509822335</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8073,10 +8073,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>228.2231340728218</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8225,16 +8225,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8380,19 +8380,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>44.02620412648071</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8453,7 +8453,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>393.1716474332579</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8465,13 +8465,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
-        <v>512.1900428685051</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>512.1900428685051</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>512.1900428685051</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>183.1401013920801</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>512.1900428685051</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,13 +8608,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>342.2890449594539</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
         <v>464.1251183645587</v>
@@ -8629,7 +8629,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8687,31 +8687,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>768.3717310533771</v>
+        <v>911.7999282395388</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>874.9595270985473</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>911.7999282395388</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>911.799928239539</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,7 +8769,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8924,10 +8924,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>69.04441372935742</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
@@ -8939,13 +8939,13 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>990.0804712831379</v>
+        <v>110.0804674982792</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
         <v>170.8626916697543</v>
@@ -9006,7 +9006,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9024,7 +9024,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9237,13 +9237,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0.03656536949884526</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9404,13 +9404,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352456</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9480,7 +9480,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9495,10 +9495,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -9644,10 +9644,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9717,7 +9717,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9735,7 +9735,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -9875,13 +9875,13 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>531.8762684426488</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
         <v>1137.102003471159</v>
@@ -9890,10 +9890,10 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>508.6956131767483</v>
       </c>
       <c r="R26" t="n">
         <v>170.8626916697543</v>
@@ -10112,13 +10112,13 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>288.735183296506</v>
+        <v>508.6956131767483</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
@@ -10127,10 +10127,10 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>170.8626916697543</v>
@@ -10191,10 +10191,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10209,7 +10209,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -10349,22 +10349,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>507.105909296743</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157522</v>
@@ -10428,7 +10428,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10446,7 +10446,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>842.7780726850283</v>
@@ -10595,7 +10595,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352437</v>
+        <v>753.9218057523904</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10607,7 +10607,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10832,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>81.93455261497229</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10844,7 +10844,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>81.93455261497274</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,13 +10896,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>0.03656536949897315</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10917,7 +10917,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
@@ -11069,7 +11069,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>350.7230603926109</v>
+        <v>81.93455261497229</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11081,7 +11081,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,22 +11139,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
         <v>661.3192390158825</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11303,22 +11303,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>162.6654744356674</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>81.93455261497184</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,13 +11370,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>0.03656536949895894</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158825</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23258,10 +23258,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>305.3077297811375</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23270,10 +23270,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>146.6460489660228</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -23312,16 +23312,16 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627259</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>143.651671086679</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>9.311440507531188e-13</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-1.125499693443999e-12</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23665,7 +23665,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>139.5921776627254</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>107.2592358276477</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23938,7 +23938,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>124.3589898130715</v>
+        <v>65.48800580459474</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142716</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627253</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,13 +24649,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>63.43016517136645</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>139.5921776627251</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>120.4463752142716</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627264</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25087,13 +25087,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>3.146865729424178</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>65.4880058045941</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627258</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>793531.2740140301</v>
+        <v>810097.3746575505</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>793531.2740140301</v>
+        <v>810991.3768947644</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>799840.9756251783</v>
+        <v>810991.3768947644</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>652974.2684887843</v>
+        <v>652974.268488785</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>831672.7300502637</v>
+        <v>831672.7300502633</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>831672.7300502637</v>
+        <v>831672.7300502633</v>
       </c>
     </row>
     <row r="9">
@@ -26320,10 +26320,10 @@
         <v>187651.561961643</v>
       </c>
       <c r="E2" t="n">
-        <v>144778.771275418</v>
+        <v>144778.7712754181</v>
       </c>
       <c r="F2" t="n">
-        <v>184400.1544480734</v>
+        <v>184400.1544480733</v>
       </c>
       <c r="G2" t="n">
         <v>184400.1544480733</v>
@@ -26338,7 +26338,7 @@
         <v>184400.1544480733</v>
       </c>
       <c r="K2" t="n">
-        <v>184400.1544480733</v>
+        <v>184400.1544480734</v>
       </c>
       <c r="L2" t="n">
         <v>184400.1544480733</v>
@@ -26353,7 +26353,7 @@
         <v>187651.561961643</v>
       </c>
       <c r="P2" t="n">
-        <v>187651.5619616431</v>
+        <v>187651.561961643</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>219526.2586797195</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4023.346928948936</v>
       </c>
       <c r="D3" t="n">
-        <v>27302.57079477372</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>119314.7203543121</v>
+        <v>72938.0436153443</v>
       </c>
       <c r="F3" t="n">
-        <v>105000.4827540558</v>
+        <v>105000.4827540554</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449901</v>
+        <v>171392.9763877637</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>3205.121347375195</v>
       </c>
       <c r="L3" t="n">
-        <v>22245.22726401215</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>99584.38187400262</v>
+        <v>60876.72976950163</v>
       </c>
       <c r="N3" t="n">
-        <v>88373.14763716084</v>
+        <v>88373.14763716029</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>212093.1194372179</v>
+        <v>175845.657171999</v>
       </c>
       <c r="C4" t="n">
-        <v>212093.1194372179</v>
+        <v>173889.535266443</v>
       </c>
       <c r="D4" t="n">
-        <v>198287.174636059</v>
+        <v>173889.5352664431</v>
       </c>
       <c r="E4" t="n">
-        <v>74492.26210185922</v>
+        <v>74492.26210185929</v>
       </c>
       <c r="F4" t="n">
-        <v>94878.44464875291</v>
+        <v>94878.44464875286</v>
       </c>
       <c r="G4" t="n">
-        <v>94878.44464875291</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="H4" t="n">
-        <v>94878.44464875293</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="I4" t="n">
         <v>94878.44464875289</v>
@@ -26442,10 +26442,10 @@
         <v>94878.44464875289</v>
       </c>
       <c r="K4" t="n">
-        <v>94878.44464875291</v>
+        <v>94878.44464875288</v>
       </c>
       <c r="L4" t="n">
-        <v>94878.44464875289</v>
+        <v>94878.44464875283</v>
       </c>
       <c r="M4" t="n">
         <v>94878.44464875288</v>
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>73455.35436996848</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>64768.75460640511</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>55437.43563696387</v>
+        <v>55437.43563696396</v>
       </c>
       <c r="F5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26494,22 +26494,22 @@
         <v>77718.2386057925</v>
       </c>
       <c r="K5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="L5" t="n">
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.23860579249</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
+        <v>75515.61472608971</v>
+      </c>
+      <c r="O5" t="n">
+        <v>75515.61472608971</v>
+      </c>
+      <c r="P5" t="n">
         <v>75515.61472608973</v>
-      </c>
-      <c r="O5" t="n">
-        <v>75515.61472608973</v>
-      </c>
-      <c r="P5" t="n">
-        <v>75515.61472608971</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-226057.6462725071</v>
+        <v>-281175.708260044</v>
       </c>
       <c r="C6" t="n">
-        <v>-83866.34561279722</v>
+        <v>-64473.84479550669</v>
       </c>
       <c r="D6" t="n">
-        <v>-102706.9380755948</v>
+        <v>-60450.49786655784</v>
       </c>
       <c r="E6" t="n">
-        <v>-104465.6468177172</v>
+        <v>-58395.20429793673</v>
       </c>
       <c r="F6" t="n">
-        <v>-93197.01156052786</v>
+        <v>-93220.23589991013</v>
       </c>
       <c r="G6" t="n">
-        <v>11803.4711935279</v>
+        <v>11780.24685414529</v>
       </c>
       <c r="H6" t="n">
-        <v>11803.47119352792</v>
+        <v>11780.24685414532</v>
       </c>
       <c r="I6" t="n">
-        <v>11803.47119352795</v>
+        <v>11780.24685414531</v>
       </c>
       <c r="J6" t="n">
-        <v>-99210.99415146219</v>
+        <v>-159612.7295336183</v>
       </c>
       <c r="K6" t="n">
-        <v>11803.47119352792</v>
+        <v>8575.125506770137</v>
       </c>
       <c r="L6" t="n">
-        <v>-10441.75607048426</v>
+        <v>11780.24685414531</v>
       </c>
       <c r="M6" t="n">
-        <v>-87780.91068047471</v>
+        <v>-49096.4829153564</v>
       </c>
       <c r="N6" t="n">
-        <v>-83539.49921947814</v>
+        <v>-83539.4992194776</v>
       </c>
       <c r="O6" t="n">
-        <v>4833.648417682736</v>
+        <v>4833.648417682722</v>
       </c>
       <c r="P6" t="n">
-        <v>4833.648417682823</v>
+        <v>4833.648417682634</v>
       </c>
     </row>
   </sheetData>
@@ -26719,13 +26719,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="O2" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="P2" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="3">
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>655.0617495060606</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>512.1900428685051</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>911.7999282395374</v>
+        <v>911.7999282395388</v>
       </c>
       <c r="F4" t="n">
         <v>1278.260503384745</v>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>655.0617495060606</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>12.4534571017964</v>
       </c>
       <c r="D4" t="n">
-        <v>87.89418534840075</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>399.6098853710323</v>
+        <v>244.2847216316818</v>
       </c>
       <c r="F4" t="n">
-        <v>366.4605751452079</v>
+        <v>366.4605751452063</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201042</v>
+        <v>655.0617495060603</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>12.45345710179663</v>
       </c>
       <c r="L4" t="n">
-        <v>87.89418534840098</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>399.6098853710319</v>
+        <v>244.2847216316818</v>
       </c>
       <c r="N4" t="n">
-        <v>307.7838677081863</v>
+        <v>307.7838677081841</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>655.0617495060606</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>12.4534571017964</v>
       </c>
       <c r="L4" t="n">
-        <v>87.89418534840075</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>399.6098853710323</v>
+        <v>244.2847216316818</v>
       </c>
       <c r="N4" t="n">
-        <v>366.4605751452079</v>
+        <v>366.4605751452063</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
         <v>400</v>
-      </c>
-      <c r="C2" t="n">
-        <v>113.7278999628232</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27397,7 +27397,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,19 +27427,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>278.2569383220606</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27537,7 +27537,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>159.7530286252345</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
@@ -27597,10 +27597,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>219.2621206688098</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>113.7278999628231</v>
+        <v>195.9391592475753</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>400</v>
       </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27783,7 +27783,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27792,7 +27792,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>212.1323395461468</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>149.5195640544054</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>400</v>
       </c>
-      <c r="C8" t="n">
-        <v>400</v>
-      </c>
-      <c r="D8" t="n">
-        <v>170.4246200048499</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
@@ -27907,19 +27907,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>226.8849511583583</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>86.45217010487889</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28029,7 +28029,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,13 +28059,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>143.6516710866787</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,10 +28074,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28810,7 +28810,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>-5.456144126071739e-13</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -28995,7 +28995,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>4.092726157978177e-12</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -29767,7 +29767,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>-1.151023720780131e-12</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="J40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="K40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="L40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="M40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="N40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="O40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="P40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="R40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="S40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874688</v>
       </c>
       <c r="U41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="J43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="K43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="L43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="M43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="N43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="O43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="P43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="R43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="S43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="J46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="K46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="L46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="M46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="N46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="O46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="P46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="R46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="S46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
   </sheetData>
@@ -34696,7 +34696,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -34708,16 +34708,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>121.1234907850387</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>655.0617495060606</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>655.0617495060606</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34778,10 +34778,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>655.0617495060604</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>6.257489509822335</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34793,10 +34793,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>228.2231340728218</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34945,16 +34945,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,7 +35091,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35100,19 +35100,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>44.02620412648071</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,7 +35173,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>393.1716474332579</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35185,13 +35185,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
-        <v>512.1900428685051</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>512.1900428685051</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35246,16 +35246,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>512.1900428685051</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>183.1401013920801</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>512.1900428685051</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,13 +35328,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>342.2890449594539</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
         <v>464.1251183645587</v>
@@ -35346,10 +35346,10 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>768.3717310533771</v>
+        <v>911.7999282395388</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>874.9595270985473</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>911.7999282395388</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>911.799928239539</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35571,16 +35571,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35644,10 +35644,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>69.04441372935742</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
@@ -35659,13 +35659,13 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>990.0804712831377</v>
+        <v>110.0804674982792</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
         <v>170.862691669754</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35744,7 +35744,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35893,7 +35893,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0.03656536949884526</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36124,13 +36124,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352456</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36215,10 +36215,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36291,13 +36291,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512984</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821539</v>
+        <v>169.891691782153</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36364,10 +36364,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36437,7 +36437,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36455,7 +36455,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -36528,13 +36528,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>531.8762684426488</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
         <v>1137.102003471159</v>
@@ -36610,10 +36610,10 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>508.6956131767483</v>
       </c>
       <c r="R26" t="n">
         <v>170.862691669754</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
@@ -36832,13 +36832,13 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>288.735183296506</v>
+        <v>508.6956131767483</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
@@ -36847,10 +36847,10 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>170.862691669754</v>
@@ -36905,16 +36905,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36929,7 +36929,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
@@ -37069,22 +37069,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081364</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>507.105909296743</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157523</v>
@@ -37148,7 +37148,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37166,7 +37166,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -37303,10 +37303,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -37315,7 +37315,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352437</v>
+        <v>753.9218057523904</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37327,7 +37327,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37552,19 +37552,19 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>81.93455261497229</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>81.93455261497274</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>0.03656536949897315</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37637,7 +37637,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -37704,7 +37704,7 @@
         <v>293.7695028348439</v>
       </c>
       <c r="L40" t="n">
-        <v>438.6699343467888</v>
+        <v>438.6699343467889</v>
       </c>
       <c r="M40" t="n">
         <v>480.3608287033061</v>
@@ -37713,13 +37713,13 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O40" t="n">
-        <v>440.1440428900416</v>
+        <v>440.1440428900421</v>
       </c>
       <c r="P40" t="n">
-        <v>367.2527749552542</v>
+        <v>367.2527749552546</v>
       </c>
       <c r="Q40" t="n">
-        <v>186.127402120901</v>
+        <v>186.1274021209006</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
@@ -37789,7 +37789,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>350.7230603926109</v>
+        <v>81.93455261497229</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37801,7 +37801,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,22 +37859,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
         <v>661.3192390158825</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -37950,10 +37950,10 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O43" t="n">
-        <v>440.1440428900416</v>
+        <v>440.1440428900421</v>
       </c>
       <c r="P43" t="n">
-        <v>367.2527749552542</v>
+        <v>367.2527749552546</v>
       </c>
       <c r="Q43" t="n">
         <v>186.1274021209015</v>
@@ -38023,22 +38023,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>162.6654744356674</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458551</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>81.93455261497184</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>0.03656536949895894</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158825</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
